--- a/tec_de_monterrey/Corpus de información_v1.xlsx
+++ b/tec_de_monterrey/Corpus de información_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\OneDrive\Documents\MNA_TecdeMonterrey\administracion_del_desarrollo_de_software\chatbot_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE067C-EDB2-448A-B3DC-67F08E708481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151445F9-AEB2-4910-B1FB-B60270C04CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maestrías" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="472">
   <si>
     <t xml:space="preserve">Maestría </t>
   </si>
@@ -1443,6 +1443,9 @@
   </si>
   <si>
     <t>Derecho Corporativo</t>
+  </si>
+  <si>
+    <t>Impartido en</t>
   </si>
 </sst>
 </file>
@@ -1958,8 +1961,8 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1981,7 +1984,7 @@
         <v>467</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
